--- a/biology/Botanique/Lantana_involucrata/Lantana_involucrata.xlsx
+++ b/biology/Botanique/Lantana_involucrata/Lantana_involucrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lantana involucrata est une espèce de plantes à fleurs de la famille des Verbenaceae. C'est un arbuste originaire d'Amérique, incluant les Antilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lantana odorata L.
 Lantana arubensis Moldenke</t>
@@ -542,7 +556,9 @@
           <t>Nom vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Martiniqueː Petit baume ou Baume blanc.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arbrisseau atteignant 1 à 2 mètres de haut au port droit, à rameaux grêles.
 Feuilles ovées, grisâtres, pubescentes, crénelées.
@@ -605,7 +623,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Savanes côtières sèches..
 </t>
@@ -636,9 +656,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antilles, Floride, Amérique centrale et Amérique du Sud[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antilles, Floride, Amérique centrale et Amérique du Sud.
 </t>
         </is>
       </c>
